--- a/deployment/Omaha_Cal_Info_CP05MOAS-GL387_00004.xlsx
+++ b/deployment/Omaha_Cal_Info_CP05MOAS-GL387_00004.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27127"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3705" yWindow="3120" windowWidth="23040" windowHeight="8955" tabRatio="377" activeTab="1"/>
+    <workbookView xWindow="720" yWindow="2080" windowWidth="23040" windowHeight="8960" tabRatio="377"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,12 @@
     <definedName name="_FilterDatabase_1_1_1">Moorings!$B$1:$K$99</definedName>
     <definedName name="_FilterDatabase_2">Asset_Cal_Info!$A$1:$H$386</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -903,23 +908,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="7" width="17.7109375" customWidth="1"/>
-    <col min="8" max="9" width="19.85546875" customWidth="1"/>
-    <col min="10" max="11" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="7" width="17.6640625" customWidth="1"/>
+    <col min="8" max="9" width="19.83203125" customWidth="1"/>
+    <col min="10" max="11" width="9.6640625" customWidth="1"/>
     <col min="12" max="12" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="28">
       <c r="A1" s="23" t="s">
         <v>33</v>
       </c>
@@ -957,7 +962,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="4" customFormat="1" ht="15">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -1003,17 +1008,22 @@
         <v>-70.541666666666671</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1021,22 +1031,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="30.42578125" customWidth="1"/>
+    <col min="1" max="2" width="30.5" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="5" width="17.28515625" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" customWidth="1"/>
-    <col min="7" max="7" width="29.42578125" customWidth="1"/>
-    <col min="8" max="8" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="21.83203125" customWidth="1"/>
+    <col min="7" max="7" width="29.5" customWidth="1"/>
+    <col min="8" max="8" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -1062,7 +1072,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19">
       <c r="A2" s="7" t="s">
         <v>27</v>
       </c>
@@ -1101,7 +1111,7 @@
       <c r="R2" s="13"/>
       <c r="S2" s="13"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19">
       <c r="A3" s="7" t="s">
         <v>27</v>
       </c>
@@ -1140,7 +1150,7 @@
       <c r="R3" s="13"/>
       <c r="S3" s="13"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19">
       <c r="A4" s="7" t="s">
         <v>27</v>
       </c>
@@ -1179,7 +1189,7 @@
       <c r="R4" s="13"/>
       <c r="S4" s="13"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19">
       <c r="A5" s="7" t="s">
         <v>27</v>
       </c>
@@ -1218,7 +1228,7 @@
       <c r="R5" s="13"/>
       <c r="S5" s="13"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="10"/>
@@ -1239,7 +1249,7 @@
       <c r="R6" s="13"/>
       <c r="S6" s="13"/>
     </row>
-    <row r="7" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" s="2" customFormat="1">
       <c r="A7" s="7" t="s">
         <v>28</v>
       </c>
@@ -1262,7 +1272,7 @@
         <v>20</v>
       </c>
       <c r="H7" s="17">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>19</v>
@@ -1273,7 +1283,7 @@
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
     </row>
-    <row r="8" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" s="2" customFormat="1">
       <c r="A8" s="7" t="s">
         <v>28</v>
       </c>
@@ -1307,7 +1317,7 @@
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
     </row>
-    <row r="9" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" s="2" customFormat="1">
       <c r="A9" s="7" t="s">
         <v>28</v>
       </c>
@@ -1341,7 +1351,7 @@
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
     </row>
-    <row r="10" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" s="2" customFormat="1">
       <c r="A10" s="7" t="s">
         <v>28</v>
       </c>
@@ -1375,7 +1385,7 @@
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
     </row>
-    <row r="11" spans="1:19" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" s="2" customFormat="1">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="10"/>
@@ -1391,7 +1401,7 @@
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
     </row>
-    <row r="12" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" s="2" customFormat="1">
       <c r="A12" s="7" t="s">
         <v>29</v>
       </c>
@@ -1421,7 +1431,7 @@
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
     </row>
-    <row r="13" spans="1:19" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" s="2" customFormat="1">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="10"/>
@@ -1437,7 +1447,7 @@
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
     </row>
-    <row r="14" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" s="2" customFormat="1">
       <c r="A14" s="7" t="s">
         <v>30</v>
       </c>
@@ -1467,7 +1477,7 @@
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>
     </row>
-    <row r="15" spans="1:19" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" s="2" customFormat="1">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="10"/>
@@ -1483,7 +1493,7 @@
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
     </row>
-    <row r="16" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" s="2" customFormat="1">
       <c r="A16" s="7" t="s">
         <v>31</v>
       </c>
@@ -1515,7 +1525,7 @@
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
     </row>
-    <row r="17" spans="1:14" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" s="2" customFormat="1">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="10"/>
@@ -1531,7 +1541,7 @@
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
     </row>
-    <row r="18" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" s="2" customFormat="1">
       <c r="A18" s="7" t="s">
         <v>32</v>
       </c>
@@ -1559,7 +1569,7 @@
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
     </row>
-    <row r="19" spans="1:14" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" s="2" customFormat="1">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="10"/>

--- a/deployment/Omaha_Cal_Info_CP05MOAS-GL387_00004.xlsx
+++ b/deployment/Omaha_Cal_Info_CP05MOAS-GL387_00004.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27127"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="720" yWindow="2080" windowWidth="23040" windowHeight="8960" tabRatio="377"/>
+    <workbookView xWindow="720" yWindow="2085" windowWidth="23040" windowHeight="8955" tabRatio="377" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -30,7 +35,7 @@
     <definedName name="_FilterDatabase_1_1_1">Moorings!$B$1:$K$99</definedName>
     <definedName name="_FilterDatabase_2">Asset_Cal_Info!$A$1:$H$386</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -40,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="48">
   <si>
     <t>Ref Des</t>
   </si>
@@ -192,6 +197,9 @@
   </si>
   <si>
     <t>39° 58' N</t>
+  </si>
+  <si>
+    <t>OL000356</t>
   </si>
 </sst>
 </file>
@@ -615,6 +623,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -662,7 +673,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -697,7 +708,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -908,23 +919,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.5" customWidth="1"/>
-    <col min="5" max="7" width="17.6640625" customWidth="1"/>
-    <col min="8" max="9" width="19.83203125" customWidth="1"/>
-    <col min="10" max="11" width="9.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="7" width="17.7109375" customWidth="1"/>
+    <col min="8" max="9" width="19.85546875" customWidth="1"/>
+    <col min="10" max="11" width="9.7109375" customWidth="1"/>
     <col min="12" max="12" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="28">
+    <row r="1" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>33</v>
       </c>
@@ -962,7 +973,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="4" customFormat="1" ht="15">
+    <row r="2" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -1008,11 +1019,11 @@
         <v>-70.541666666666671</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
@@ -1031,22 +1042,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="30.5" customWidth="1"/>
+    <col min="1" max="2" width="30.42578125" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="5" width="17.33203125" customWidth="1"/>
-    <col min="6" max="6" width="21.83203125" customWidth="1"/>
-    <col min="7" max="7" width="29.5" customWidth="1"/>
-    <col min="8" max="8" width="28.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" customWidth="1"/>
+    <col min="7" max="7" width="29.42578125" customWidth="1"/>
+    <col min="8" max="8" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -1072,7 +1083,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>27</v>
       </c>
@@ -1111,7 +1122,7 @@
       <c r="R2" s="13"/>
       <c r="S2" s="13"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>27</v>
       </c>
@@ -1150,7 +1161,7 @@
       <c r="R3" s="13"/>
       <c r="S3" s="13"/>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>27</v>
       </c>
@@ -1189,7 +1200,7 @@
       <c r="R4" s="13"/>
       <c r="S4" s="13"/>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>27</v>
       </c>
@@ -1228,7 +1239,7 @@
       <c r="R5" s="13"/>
       <c r="S5" s="13"/>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="10"/>
@@ -1249,7 +1260,7 @@
       <c r="R6" s="13"/>
       <c r="S6" s="13"/>
     </row>
-    <row r="7" spans="1:19" s="2" customFormat="1">
+    <row r="7" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>28</v>
       </c>
@@ -1283,7 +1294,7 @@
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
     </row>
-    <row r="8" spans="1:19" s="2" customFormat="1">
+    <row r="8" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>28</v>
       </c>
@@ -1317,7 +1328,7 @@
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
     </row>
-    <row r="9" spans="1:19" s="2" customFormat="1">
+    <row r="9" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>28</v>
       </c>
@@ -1351,7 +1362,7 @@
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
     </row>
-    <row r="10" spans="1:19" s="2" customFormat="1">
+    <row r="10" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>28</v>
       </c>
@@ -1385,7 +1396,7 @@
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
     </row>
-    <row r="11" spans="1:19" s="2" customFormat="1">
+    <row r="11" spans="1:19" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="10"/>
@@ -1401,7 +1412,7 @@
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
     </row>
-    <row r="12" spans="1:19" s="2" customFormat="1">
+    <row r="12" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>29</v>
       </c>
@@ -1431,7 +1442,7 @@
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
     </row>
-    <row r="13" spans="1:19" s="2" customFormat="1">
+    <row r="13" spans="1:19" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="10"/>
@@ -1447,7 +1458,7 @@
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
     </row>
-    <row r="14" spans="1:19" s="2" customFormat="1">
+    <row r="14" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>30</v>
       </c>
@@ -1477,7 +1488,7 @@
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>
     </row>
-    <row r="15" spans="1:19" s="2" customFormat="1">
+    <row r="15" spans="1:19" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="10"/>
@@ -1493,7 +1504,7 @@
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
     </row>
-    <row r="16" spans="1:19" s="2" customFormat="1">
+    <row r="16" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>31</v>
       </c>
@@ -1516,7 +1527,7 @@
         <v>41</v>
       </c>
       <c r="H16" s="25">
-        <v>9.9999999999999995E-7</v>
+        <v>1</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
@@ -1525,7 +1536,7 @@
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
     </row>
-    <row r="17" spans="1:14" s="2" customFormat="1">
+    <row r="17" spans="1:14" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="10"/>
@@ -1541,7 +1552,7 @@
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
     </row>
-    <row r="18" spans="1:14" s="2" customFormat="1">
+    <row r="18" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>32</v>
       </c>
@@ -1554,7 +1565,9 @@
       <c r="D18" s="10">
         <v>4</v>
       </c>
-      <c r="E18" s="10"/>
+      <c r="E18" t="s">
+        <v>47</v>
+      </c>
       <c r="F18" s="10">
         <v>387</v>
       </c>
@@ -1569,7 +1582,7 @@
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
     </row>
-    <row r="19" spans="1:14" s="2" customFormat="1">
+    <row r="19" spans="1:14" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="10"/>

--- a/deployment/Omaha_Cal_Info_CP05MOAS-GL387_00004.xlsx
+++ b/deployment/Omaha_Cal_Info_CP05MOAS-GL387_00004.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27127"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="2085" windowWidth="23040" windowHeight="8955" tabRatio="377" activeTab="1"/>
+    <workbookView xWindow="720" yWindow="2080" windowWidth="28320" windowHeight="10620" tabRatio="377" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -35,7 +30,7 @@
     <definedName name="_FilterDatabase_1_1_1">Moorings!$B$1:$K$99</definedName>
     <definedName name="_FilterDatabase_2">Asset_Cal_Info!$A$1:$H$386</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -431,7 +426,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -501,6 +496,9 @@
     </xf>
     <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -673,7 +671,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -708,7 +706,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -923,19 +921,19 @@
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="7" width="17.7109375" customWidth="1"/>
-    <col min="8" max="9" width="19.85546875" customWidth="1"/>
-    <col min="10" max="11" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="7" width="17.6640625" customWidth="1"/>
+    <col min="8" max="9" width="19.83203125" customWidth="1"/>
+    <col min="10" max="11" width="9.6640625" customWidth="1"/>
     <col min="12" max="12" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="28">
       <c r="A1" s="23" t="s">
         <v>33</v>
       </c>
@@ -973,7 +971,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="4" customFormat="1" ht="15">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -1019,11 +1017,11 @@
         <v>-70.541666666666671</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
@@ -1043,21 +1041,21 @@
   <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="30.42578125" customWidth="1"/>
+    <col min="1" max="2" width="30.5" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="5" width="17.28515625" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" customWidth="1"/>
-    <col min="7" max="7" width="29.42578125" customWidth="1"/>
-    <col min="8" max="8" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="21.83203125" customWidth="1"/>
+    <col min="7" max="7" width="29.5" customWidth="1"/>
+    <col min="8" max="8" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -1083,7 +1081,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19">
       <c r="A2" s="7" t="s">
         <v>27</v>
       </c>
@@ -1122,7 +1120,7 @@
       <c r="R2" s="13"/>
       <c r="S2" s="13"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19">
       <c r="A3" s="7" t="s">
         <v>27</v>
       </c>
@@ -1161,7 +1159,7 @@
       <c r="R3" s="13"/>
       <c r="S3" s="13"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19">
       <c r="A4" s="7" t="s">
         <v>27</v>
       </c>
@@ -1200,7 +1198,7 @@
       <c r="R4" s="13"/>
       <c r="S4" s="13"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19">
       <c r="A5" s="7" t="s">
         <v>27</v>
       </c>
@@ -1239,7 +1237,7 @@
       <c r="R5" s="13"/>
       <c r="S5" s="13"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="10"/>
@@ -1260,7 +1258,7 @@
       <c r="R6" s="13"/>
       <c r="S6" s="13"/>
     </row>
-    <row r="7" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" s="2" customFormat="1">
       <c r="A7" s="7" t="s">
         <v>28</v>
       </c>
@@ -1294,7 +1292,7 @@
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
     </row>
-    <row r="8" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" s="2" customFormat="1">
       <c r="A8" s="7" t="s">
         <v>28</v>
       </c>
@@ -1328,7 +1326,7 @@
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
     </row>
-    <row r="9" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" s="2" customFormat="1">
       <c r="A9" s="7" t="s">
         <v>28</v>
       </c>
@@ -1362,7 +1360,7 @@
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
     </row>
-    <row r="10" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" s="2" customFormat="1">
       <c r="A10" s="7" t="s">
         <v>28</v>
       </c>
@@ -1396,7 +1394,7 @@
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
     </row>
-    <row r="11" spans="1:19" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" s="2" customFormat="1">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="10"/>
@@ -1412,7 +1410,7 @@
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
     </row>
-    <row r="12" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" s="2" customFormat="1">
       <c r="A12" s="7" t="s">
         <v>29</v>
       </c>
@@ -1442,7 +1440,7 @@
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
     </row>
-    <row r="13" spans="1:19" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" s="2" customFormat="1">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="10"/>
@@ -1458,7 +1456,7 @@
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
     </row>
-    <row r="14" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" s="2" customFormat="1">
       <c r="A14" s="7" t="s">
         <v>30</v>
       </c>
@@ -1488,7 +1486,7 @@
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>
     </row>
-    <row r="15" spans="1:19" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" s="2" customFormat="1">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="10"/>
@@ -1504,7 +1502,7 @@
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
     </row>
-    <row r="16" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" s="2" customFormat="1">
       <c r="A16" s="7" t="s">
         <v>31</v>
       </c>
@@ -1526,8 +1524,8 @@
       <c r="G16" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="H16" s="25">
-        <v>1</v>
+      <c r="H16" s="28">
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
@@ -1536,7 +1534,7 @@
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
     </row>
-    <row r="17" spans="1:14" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" s="2" customFormat="1">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="10"/>
@@ -1552,7 +1550,7 @@
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
     </row>
-    <row r="18" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" s="2" customFormat="1">
       <c r="A18" s="7" t="s">
         <v>32</v>
       </c>
@@ -1582,7 +1580,7 @@
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
     </row>
-    <row r="19" spans="1:14" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" s="2" customFormat="1">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="10"/>

--- a/deployment/Omaha_Cal_Info_CP05MOAS-GL387_00004.xlsx
+++ b/deployment/Omaha_Cal_Info_CP05MOAS-GL387_00004.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leila/Documents/OOI_assmgt/asset-management/deployment/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="720" yWindow="2080" windowWidth="28320" windowHeight="10620" tabRatio="377" activeTab="1"/>
+    <workbookView xWindow="29220" yWindow="-5620" windowWidth="35260" windowHeight="23300" tabRatio="377"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -30,8 +35,11 @@
     <definedName name="_FilterDatabase_1_1_1">Moorings!$B$1:$K$99</definedName>
     <definedName name="_FilterDatabase_2">Asset_Cal_Info!$A$1:$H$386</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -40,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="47">
   <si>
     <t>Ref Des</t>
   </si>
@@ -177,9 +185,6 @@
   </si>
   <si>
     <t>CC_bsipar_par_scaling</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>SCV-3</t>
@@ -917,11 +922,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="23.33203125" customWidth="1"/>
@@ -933,7 +938,7 @@
     <col min="12" max="12" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="28">
+    <row r="1" spans="1:14" ht="28" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
         <v>33</v>
       </c>
@@ -971,7 +976,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="4" customFormat="1" ht="15">
+    <row r="2" spans="1:14" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -990,23 +995,23 @@
       <c r="F2" s="6">
         <v>0.79027777777777775</v>
       </c>
-      <c r="G2" s="26" t="s">
-        <v>42</v>
+      <c r="G2" s="26">
+        <v>42579</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J2" s="21">
         <v>1000</v>
       </c>
       <c r="K2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="21" t="s">
         <v>43</v>
-      </c>
-      <c r="L2" s="21" t="s">
-        <v>44</v>
       </c>
       <c r="M2" s="22">
         <f>((LEFT(H2,(FIND("°",H2,1)-1)))+(MID(H2,(FIND("°",H2,1)+1),(FIND("'",H2,1))-(FIND("°",H2,1)+1))/60))*(IF(RIGHT(H2,1)="N",1,-1))</f>
@@ -1017,22 +1022,17 @@
         <v>-70.541666666666671</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1040,11 +1040,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="210" zoomScaleNormal="210" zoomScalePageLayoutView="210" workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="30.5" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
@@ -1055,7 +1055,7 @@
     <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -1081,7 +1081,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>27</v>
       </c>
@@ -1120,7 +1120,7 @@
       <c r="R2" s="13"/>
       <c r="S2" s="13"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>27</v>
       </c>
@@ -1159,7 +1159,7 @@
       <c r="R3" s="13"/>
       <c r="S3" s="13"/>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>27</v>
       </c>
@@ -1198,7 +1198,7 @@
       <c r="R4" s="13"/>
       <c r="S4" s="13"/>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>27</v>
       </c>
@@ -1237,7 +1237,7 @@
       <c r="R5" s="13"/>
       <c r="S5" s="13"/>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="10"/>
@@ -1258,7 +1258,7 @@
       <c r="R6" s="13"/>
       <c r="S6" s="13"/>
     </row>
-    <row r="7" spans="1:19" s="2" customFormat="1">
+    <row r="7" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>28</v>
       </c>
@@ -1292,7 +1292,7 @@
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
     </row>
-    <row r="8" spans="1:19" s="2" customFormat="1">
+    <row r="8" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>28</v>
       </c>
@@ -1326,7 +1326,7 @@
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
     </row>
-    <row r="9" spans="1:19" s="2" customFormat="1">
+    <row r="9" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>28</v>
       </c>
@@ -1360,7 +1360,7 @@
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
     </row>
-    <row r="10" spans="1:19" s="2" customFormat="1">
+    <row r="10" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>28</v>
       </c>
@@ -1394,7 +1394,7 @@
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
     </row>
-    <row r="11" spans="1:19" s="2" customFormat="1">
+    <row r="11" spans="1:19" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="10"/>
@@ -1410,7 +1410,7 @@
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
     </row>
-    <row r="12" spans="1:19" s="2" customFormat="1">
+    <row r="12" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>29</v>
       </c>
@@ -1440,7 +1440,7 @@
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
     </row>
-    <row r="13" spans="1:19" s="2" customFormat="1">
+    <row r="13" spans="1:19" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="10"/>
@@ -1456,7 +1456,7 @@
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
     </row>
-    <row r="14" spans="1:19" s="2" customFormat="1">
+    <row r="14" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>30</v>
       </c>
@@ -1486,7 +1486,7 @@
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>
     </row>
-    <row r="15" spans="1:19" s="2" customFormat="1">
+    <row r="15" spans="1:19" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="10"/>
@@ -1502,7 +1502,7 @@
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
     </row>
-    <row r="16" spans="1:19" s="2" customFormat="1">
+    <row r="16" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>31</v>
       </c>
@@ -1534,7 +1534,7 @@
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
     </row>
-    <row r="17" spans="1:14" s="2" customFormat="1">
+    <row r="17" spans="1:14" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="10"/>
@@ -1550,7 +1550,7 @@
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
     </row>
-    <row r="18" spans="1:14" s="2" customFormat="1">
+    <row r="18" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>32</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>4</v>
       </c>
       <c r="E18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F18" s="10">
         <v>387</v>
@@ -1580,7 +1580,7 @@
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
     </row>
-    <row r="19" spans="1:14" s="2" customFormat="1">
+    <row r="19" spans="1:14" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="10"/>
@@ -1599,10 +1599,5 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>